--- a/docs/Actividades y Metas/SIAF0823_.xlsx
+++ b/docs/Actividades y Metas/SIAF0823_.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\repos\00078-DWeb_GestionPlanillas\docs\Actividades y Metas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84C1DE9-5F3C-41EE-AF13-1334E16C412A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="9915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="siaf0823" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">siaf0823!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -178,7 +197,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
@@ -241,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,7 +281,6 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,14 +291,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -318,7 +339,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -390,7 +411,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -563,11 +584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU43"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4026,7 +4047,7 @@
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="7"/>
@@ -4062,7 +4083,7 @@
         <f t="shared" si="8"/>
         <v>54370.22</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" t="s">
         <v>48</v>
       </c>
       <c r="L30" s="7"/>
@@ -4098,7 +4119,7 @@
         <f t="shared" si="9"/>
         <v>61099.32</v>
       </c>
-      <c r="U30" s="12" t="s">
+      <c r="U30" t="s">
         <v>48</v>
       </c>
       <c r="V30" s="7"/>
@@ -4134,7 +4155,7 @@
         <f t="shared" si="10"/>
         <v>2875.47</v>
       </c>
-      <c r="AE30" s="12" t="s">
+      <c r="AE30" t="s">
         <v>48</v>
       </c>
       <c r="AF30" s="7"/>
@@ -4166,7 +4187,7 @@
         <f t="shared" si="11"/>
         <v>560102.53</v>
       </c>
-      <c r="AN30" s="12" t="s">
+      <c r="AN30" t="s">
         <v>48</v>
       </c>
       <c r="AO30" s="7"/>
@@ -4496,7 +4517,7 @@
       </c>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="7"/>
@@ -4532,7 +4553,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="K35" t="s">
         <v>49</v>
       </c>
       <c r="L35" s="7"/>
@@ -4568,7 +4589,7 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U35" s="12" t="s">
+      <c r="U35" t="s">
         <v>49</v>
       </c>
       <c r="V35" s="7"/>
@@ -4604,7 +4625,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AE35" s="12" t="s">
+      <c r="AE35" t="s">
         <v>49</v>
       </c>
       <c r="AF35" s="7"/>
@@ -4636,7 +4657,7 @@
         <f t="shared" si="15"/>
         <v>90</v>
       </c>
-      <c r="AN35" s="12" t="s">
+      <c r="AN35" t="s">
         <v>49</v>
       </c>
       <c r="AO35" s="7"/>
@@ -4970,7 +4991,7 @@
       </c>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="7"/>
@@ -5006,7 +5027,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="K40" t="s">
         <v>50</v>
       </c>
       <c r="L40" s="7"/>
@@ -5042,7 +5063,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U40" s="12" t="s">
+      <c r="U40" t="s">
         <v>50</v>
       </c>
       <c r="V40" s="7"/>
@@ -5078,7 +5099,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE40" s="12" t="s">
+      <c r="AE40" t="s">
         <v>50</v>
       </c>
       <c r="AF40" s="7"/>
@@ -5110,7 +5131,7 @@
         <f t="shared" si="19"/>
         <v>14163.03</v>
       </c>
-      <c r="AN40" s="12" t="s">
+      <c r="AN40" t="s">
         <v>50</v>
       </c>
       <c r="AO40" s="7"/>
